--- a/.gitbook/assets/Buggy Component List.xlsx
+++ b/.gitbook/assets/Buggy Component List.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28122"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D226A48A-BA41-42B9-A734-0328BCC1CA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{860D5F44-7941-40C3-8B8B-891021C49C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
   <si>
     <t>Buggy components list</t>
   </si>
@@ -189,12 +189,15 @@
     <t>https://ro.mouser.com/ProductDetail/Wurth-Elektronik/970450324?qs=wr8lucFkNMXOhbySD7%252BnDA%3D%3D</t>
   </si>
   <si>
+    <t>M2-12mm Bolt</t>
+  </si>
+  <si>
+    <t>any store</t>
+  </si>
+  <si>
     <t>M3-12mm Bolt</t>
   </si>
   <si>
-    <t>any store</t>
-  </si>
-  <si>
     <t>M3-5mm Bolt</t>
   </si>
   <si>
@@ -204,6 +207,9 @@
     <t>M3-20mm Bolt</t>
   </si>
   <si>
+    <t>M3-40mm Bolt</t>
+  </si>
+  <si>
     <t>M3.5-10mm Bolt</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>M5-20mm Bolt</t>
   </si>
   <si>
+    <t>M2 nut</t>
+  </si>
+  <si>
     <t>M3 nut</t>
   </si>
   <si>
@@ -220,6 +229,12 @@
   </si>
   <si>
     <t>M5 nut</t>
+  </si>
+  <si>
+    <t>M3-10mm nylon Screw</t>
+  </si>
+  <si>
+    <t>M3 nylon nut</t>
   </si>
   <si>
     <t>Prints</t>
@@ -774,8 +789,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CustomerList" displayName="CustomerList" ref="B4:F59" totalsRowShown="0" dataDxfId="5">
-  <autoFilter ref="B4:F59" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CustomerList" displayName="CustomerList" ref="B4:F62" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="B4:F62" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Components" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Units ()" dataDxfId="3"/>
@@ -1023,10 +1038,10 @@
     <tabColor theme="6" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O67"/>
+  <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="30" customHeight="1"/>
@@ -1482,18 +1497,24 @@
       <c r="F30" s="28"/>
     </row>
     <row r="31" spans="2:15" ht="30" customHeight="1">
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="28">
+        <v>1</v>
+      </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
+      <c r="E31" s="28" t="s">
+        <v>52</v>
+      </c>
       <c r="F31" s="28"/>
     </row>
     <row r="32" spans="2:15" ht="30" customHeight="1">
       <c r="B32" s="17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C32" s="17">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="17" t="s">
@@ -1503,7 +1524,7 @@
     </row>
     <row r="33" spans="2:6" ht="30" customHeight="1">
       <c r="B33" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C33" s="17">
         <v>4</v>
@@ -1516,7 +1537,7 @@
     </row>
     <row r="34" spans="2:6" ht="30" customHeight="1">
       <c r="B34" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C34" s="17">
         <v>2</v>
@@ -1529,10 +1550,10 @@
     </row>
     <row r="35" spans="2:6" ht="30" customHeight="1">
       <c r="B35" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C35" s="17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17" t="s">
@@ -1542,10 +1563,10 @@
     </row>
     <row r="36" spans="2:6" ht="30" customHeight="1">
       <c r="B36" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C36" s="17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="17" t="s">
@@ -1555,10 +1576,10 @@
     </row>
     <row r="37" spans="2:6" ht="30" customHeight="1">
       <c r="B37" s="17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C37" s="17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="17" t="s">
@@ -1568,10 +1589,10 @@
     </row>
     <row r="38" spans="2:6" ht="30" customHeight="1">
       <c r="B38" s="17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C38" s="17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="17" t="s">
@@ -1581,10 +1602,10 @@
     </row>
     <row r="39" spans="2:6" ht="30" customHeight="1">
       <c r="B39" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C39" s="17">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D39" s="17"/>
       <c r="E39" s="17" t="s">
@@ -1594,10 +1615,10 @@
     </row>
     <row r="40" spans="2:6" ht="30" customHeight="1">
       <c r="B40" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C40" s="17">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D40" s="17"/>
       <c r="E40" s="17" t="s">
@@ -1607,10 +1628,10 @@
     </row>
     <row r="41" spans="2:6" ht="30" customHeight="1">
       <c r="B41" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C41" s="17">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="17" t="s">
@@ -1619,8 +1640,12 @@
       <c r="F41" s="17"/>
     </row>
     <row r="42" spans="2:6" ht="30" customHeight="1">
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
+      <c r="B42" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="17">
+        <v>8</v>
+      </c>
       <c r="D42" s="17"/>
       <c r="E42" s="17" t="s">
         <v>52</v>
@@ -1628,53 +1653,59 @@
       <c r="F42" s="17"/>
     </row>
     <row r="43" spans="2:6" ht="30" customHeight="1">
-      <c r="B43" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
+      <c r="B43" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="17">
+        <v>2</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" s="17"/>
     </row>
     <row r="44" spans="2:6" ht="30" customHeight="1">
-      <c r="B44" s="29" t="s">
-        <v>63</v>
+      <c r="B44" s="17" t="s">
+        <v>65</v>
       </c>
       <c r="C44" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
+      <c r="E44" s="17" t="s">
+        <v>52</v>
+      </c>
       <c r="F44" s="17"/>
     </row>
     <row r="45" spans="2:6" ht="30" customHeight="1">
       <c r="B45" s="17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C45" s="17">
+        <v>4</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" s="17"/>
+    </row>
+    <row r="46" spans="2:6" ht="30" customHeight="1">
+      <c r="B46" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+    </row>
+    <row r="47" spans="2:6" ht="30" customHeight="1">
+      <c r="B47" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="17">
         <v>1</v>
-      </c>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-    </row>
-    <row r="46" spans="2:6" ht="30" customHeight="1">
-      <c r="B46" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="17">
-        <v>1</v>
-      </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-    </row>
-    <row r="47" spans="2:6" ht="30" customHeight="1">
-      <c r="B47" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" s="17">
-        <v>2</v>
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
@@ -1682,10 +1713,10 @@
     </row>
     <row r="48" spans="2:6" ht="30" customHeight="1">
       <c r="B48" s="17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C48" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
@@ -1693,10 +1724,10 @@
     </row>
     <row r="49" spans="2:6" ht="30" customHeight="1">
       <c r="B49" s="17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C49" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
@@ -1704,7 +1735,7 @@
     </row>
     <row r="50" spans="2:6" ht="30" customHeight="1">
       <c r="B50" s="17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C50" s="17">
         <v>2</v>
@@ -1715,10 +1746,10 @@
     </row>
     <row r="51" spans="2:6" ht="30" customHeight="1">
       <c r="B51" s="17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C51" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="17"/>
@@ -1726,10 +1757,10 @@
     </row>
     <row r="52" spans="2:6" ht="30" customHeight="1">
       <c r="B52" s="17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C52" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="17"/>
@@ -1737,10 +1768,10 @@
     </row>
     <row r="53" spans="2:6" ht="30" customHeight="1">
       <c r="B53" s="17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C53" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
@@ -1748,10 +1779,10 @@
     </row>
     <row r="54" spans="2:6" ht="30" customHeight="1">
       <c r="B54" s="17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C54" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="17"/>
@@ -1759,10 +1790,10 @@
     </row>
     <row r="55" spans="2:6" ht="30" customHeight="1">
       <c r="B55" s="17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C55" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="17"/>
@@ -1770,7 +1801,7 @@
     </row>
     <row r="56" spans="2:6" ht="30" customHeight="1">
       <c r="B56" s="17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C56" s="17">
         <v>1</v>
@@ -1781,7 +1812,7 @@
     </row>
     <row r="57" spans="2:6" ht="30" customHeight="1">
       <c r="B57" s="17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C57" s="17">
         <v>1</v>
@@ -1792,7 +1823,7 @@
     </row>
     <row r="58" spans="2:6" ht="30" customHeight="1">
       <c r="B58" s="17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C58" s="17">
         <v>1</v>
@@ -1803,7 +1834,7 @@
     </row>
     <row r="59" spans="2:6" ht="30" customHeight="1">
       <c r="B59" s="17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C59" s="17">
         <v>1</v>
@@ -1813,60 +1844,93 @@
       <c r="F59" s="17"/>
     </row>
     <row r="60" spans="2:6" ht="30" customHeight="1">
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
+      <c r="B60" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="17">
+        <v>1</v>
+      </c>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
     </row>
     <row r="61" spans="2:6" ht="30" customHeight="1">
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
+      <c r="B61" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="17">
+        <v>1</v>
+      </c>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
     </row>
     <row r="62" spans="2:6" ht="30" customHeight="1">
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
+      <c r="B62" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="17">
+        <v>1</v>
+      </c>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
     </row>
     <row r="63" spans="2:6" ht="30" customHeight="1">
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
     </row>
     <row r="64" spans="2:6" ht="30" customHeight="1">
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
     </row>
     <row r="65" spans="2:6" ht="30" customHeight="1">
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
     </row>
     <row r="66" spans="2:6" ht="30" customHeight="1">
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
     </row>
     <row r="67" spans="2:6" ht="30" customHeight="1">
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+    </row>
+    <row r="68" spans="2:6" ht="30" customHeight="1">
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+    </row>
+    <row r="69" spans="2:6" ht="30" customHeight="1">
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+    </row>
+    <row r="70" spans="2:6" ht="30" customHeight="1">
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/.gitbook/assets/Buggy Component List.xlsx
+++ b/.gitbook/assets/Buggy Component List.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28122"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{860D5F44-7941-40C3-8B8B-891021C49C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6F638CE-20F8-412B-943F-F7D9DA6287A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="85">
   <si>
     <t>Buggy components list</t>
   </si>
@@ -213,7 +213,10 @@
     <t>M3.5-10mm Bolt</t>
   </si>
   <si>
-    <t>M3.5-35mm Bolt</t>
+    <t>The screws come with the adapters</t>
+  </si>
+  <si>
+    <t>M5-35mm Bolt</t>
   </si>
   <si>
     <t>M5-20mm Bolt</t>
@@ -1040,8 +1043,8 @@
   </sheetPr>
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="30" customHeight="1"/>
@@ -1579,17 +1582,19 @@
         <v>58</v>
       </c>
       <c r="C37" s="17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F37" s="17"/>
+      <c r="F37" s="17" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="38" spans="2:6" ht="30" customHeight="1">
       <c r="B38" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C38" s="17">
         <v>8</v>
@@ -1602,7 +1607,7 @@
     </row>
     <row r="39" spans="2:6" ht="30" customHeight="1">
       <c r="B39" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C39" s="17">
         <v>2</v>
@@ -1615,7 +1620,7 @@
     </row>
     <row r="40" spans="2:6" ht="30" customHeight="1">
       <c r="B40" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C40" s="17">
         <v>1</v>
@@ -1628,7 +1633,7 @@
     </row>
     <row r="41" spans="2:6" ht="30" customHeight="1">
       <c r="B41" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C41" s="17">
         <v>16</v>
@@ -1641,7 +1646,7 @@
     </row>
     <row r="42" spans="2:6" ht="30" customHeight="1">
       <c r="B42" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C42" s="17">
         <v>8</v>
@@ -1654,7 +1659,7 @@
     </row>
     <row r="43" spans="2:6" ht="30" customHeight="1">
       <c r="B43" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C43" s="17">
         <v>2</v>
@@ -1667,7 +1672,7 @@
     </row>
     <row r="44" spans="2:6" ht="30" customHeight="1">
       <c r="B44" s="17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C44" s="17">
         <v>4</v>
@@ -1680,7 +1685,7 @@
     </row>
     <row r="45" spans="2:6" ht="30" customHeight="1">
       <c r="B45" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C45" s="17">
         <v>4</v>
@@ -1693,7 +1698,7 @@
     </row>
     <row r="46" spans="2:6" ht="30" customHeight="1">
       <c r="B46" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C46" s="21"/>
       <c r="D46" s="21"/>
@@ -1702,7 +1707,7 @@
     </row>
     <row r="47" spans="2:6" ht="30" customHeight="1">
       <c r="B47" s="29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C47" s="17">
         <v>1</v>
@@ -1713,7 +1718,7 @@
     </row>
     <row r="48" spans="2:6" ht="30" customHeight="1">
       <c r="B48" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C48" s="17">
         <v>1</v>
@@ -1724,7 +1729,7 @@
     </row>
     <row r="49" spans="2:6" ht="30" customHeight="1">
       <c r="B49" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C49" s="17">
         <v>1</v>
@@ -1735,7 +1740,7 @@
     </row>
     <row r="50" spans="2:6" ht="30" customHeight="1">
       <c r="B50" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C50" s="17">
         <v>2</v>
@@ -1746,7 +1751,7 @@
     </row>
     <row r="51" spans="2:6" ht="30" customHeight="1">
       <c r="B51" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C51" s="17">
         <v>2</v>
@@ -1757,7 +1762,7 @@
     </row>
     <row r="52" spans="2:6" ht="30" customHeight="1">
       <c r="B52" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C52" s="17">
         <v>2</v>
@@ -1768,7 +1773,7 @@
     </row>
     <row r="53" spans="2:6" ht="30" customHeight="1">
       <c r="B53" s="17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C53" s="17">
         <v>2</v>
@@ -1779,7 +1784,7 @@
     </row>
     <row r="54" spans="2:6" ht="30" customHeight="1">
       <c r="B54" s="17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C54" s="17">
         <v>4</v>
@@ -1790,7 +1795,7 @@
     </row>
     <row r="55" spans="2:6" ht="30" customHeight="1">
       <c r="B55" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C55" s="17">
         <v>4</v>
@@ -1801,7 +1806,7 @@
     </row>
     <row r="56" spans="2:6" ht="30" customHeight="1">
       <c r="B56" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C56" s="17">
         <v>1</v>
@@ -1812,7 +1817,7 @@
     </row>
     <row r="57" spans="2:6" ht="30" customHeight="1">
       <c r="B57" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C57" s="17">
         <v>1</v>
@@ -1823,7 +1828,7 @@
     </row>
     <row r="58" spans="2:6" ht="30" customHeight="1">
       <c r="B58" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C58" s="17">
         <v>1</v>
@@ -1834,7 +1839,7 @@
     </row>
     <row r="59" spans="2:6" ht="30" customHeight="1">
       <c r="B59" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C59" s="17">
         <v>1</v>
@@ -1845,7 +1850,7 @@
     </row>
     <row r="60" spans="2:6" ht="30" customHeight="1">
       <c r="B60" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C60" s="17">
         <v>1</v>
@@ -1856,7 +1861,7 @@
     </row>
     <row r="61" spans="2:6" ht="30" customHeight="1">
       <c r="B61" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C61" s="17">
         <v>1</v>
@@ -1867,7 +1872,7 @@
     </row>
     <row r="62" spans="2:6" ht="30" customHeight="1">
       <c r="B62" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C62" s="17">
         <v>1</v>
@@ -1978,6 +1983,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2289,45 +2323,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F11600A7-1852-41A2-85E0-7A283C2047C4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2F9FC5B-1419-41E5-B909-94EB8B44A792}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2F9FC5B-1419-41E5-B909-94EB8B44A792}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9294272-CF55-45E6-BFA7-E13D5DFD9221}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9294272-CF55-45E6-BFA7-E13D5DFD9221}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F11600A7-1852-41A2-85E0-7A283C2047C4}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/.gitbook/assets/Buggy Component List.xlsx
+++ b/.gitbook/assets/Buggy Component List.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28122"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6F638CE-20F8-412B-943F-F7D9DA6287A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BF37E45-6551-45EA-BA49-31D3B34369BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="86">
   <si>
     <t>Buggy components list</t>
   </si>
@@ -213,7 +213,7 @@
     <t>M3.5-10mm Bolt</t>
   </si>
   <si>
-    <t>The screws come with the adapters</t>
+    <t>The screws come with the hexagonal adapters.</t>
   </si>
   <si>
     <t>M5-35mm Bolt</t>
@@ -228,10 +228,13 @@
     <t>M3 nut</t>
   </si>
   <si>
-    <t>M3.5 nut</t>
-  </si>
-  <si>
     <t>M5 nut</t>
+  </si>
+  <si>
+    <t>M3-12mm nylon spacer</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/Screws-Spacer-Sleeves-Female-Repair/dp/B09TR3C3WR/ref=sr_1_2?crid=32DZ4ENC965DK&amp;dib=eyJ2IjoiMSJ9.dE7kt6IMk4x-XruzLJQ7fUn3KtIeSEE1j_eJI4grNNqjpF3c5b6jI0Xhe8pOc-hN3w0gyN_v3zZTQ3G7nCXpO2sIysTF0TrptezlqpyYj-CyrnEL9viQFKgbFhSUbZls0FX_LvIr2k9dAhWsIXbsqClJkoeWhhFJ9bUHcv5HwCkOgl4ktDLI6oYCtoKNIhejYHDJisqnKOKZbRL8g5GcRYkjFg0maDuCvRb1oQ749WNrm_lDvr732pkmfOzBWRCxa-tUgX7_XBrrhZPCEaizEmXjodQRwt5sHuWluQgVacY.bk0o0vSn3h8nL8-DOLFB8Ke9VJ3LreKag39EJVZTCC0&amp;dib_tag=se&amp;keywords=Nylon+screws+nuts+spacers&amp;qid=1728318721&amp;s=industrial&amp;sprefix=nylon+screws+nuts+spacers%2Cindustrial%2C95&amp;sr=1-2</t>
   </si>
   <si>
     <t>M3-10mm nylon Screw</t>
@@ -503,7 +506,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -593,6 +596,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1044,7 +1050,7 @@
   <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="30" customHeight="1"/>
@@ -1649,7 +1655,7 @@
         <v>64</v>
       </c>
       <c r="C42" s="17">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="17" t="s">
@@ -1662,43 +1668,43 @@
         <v>65</v>
       </c>
       <c r="C43" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" s="17"/>
-      <c r="E43" s="17" t="s">
-        <v>52</v>
+      <c r="E43" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="F43" s="17"/>
     </row>
     <row r="44" spans="2:6" ht="30" customHeight="1">
       <c r="B44" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C44" s="17">
         <v>4</v>
       </c>
       <c r="D44" s="17"/>
-      <c r="E44" s="17" t="s">
-        <v>52</v>
+      <c r="E44" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="F44" s="17"/>
     </row>
     <row r="45" spans="2:6" ht="30" customHeight="1">
       <c r="B45" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C45" s="17">
         <v>4</v>
       </c>
       <c r="D45" s="17"/>
-      <c r="E45" s="17" t="s">
-        <v>52</v>
+      <c r="E45" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="F45" s="17"/>
     </row>
     <row r="46" spans="2:6" ht="30" customHeight="1">
       <c r="B46" s="22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C46" s="21"/>
       <c r="D46" s="21"/>
@@ -1707,7 +1713,7 @@
     </row>
     <row r="47" spans="2:6" ht="30" customHeight="1">
       <c r="B47" s="29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C47" s="17">
         <v>1</v>
@@ -1718,7 +1724,7 @@
     </row>
     <row r="48" spans="2:6" ht="30" customHeight="1">
       <c r="B48" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C48" s="17">
         <v>1</v>
@@ -1729,7 +1735,7 @@
     </row>
     <row r="49" spans="2:6" ht="30" customHeight="1">
       <c r="B49" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C49" s="17">
         <v>1</v>
@@ -1740,7 +1746,7 @@
     </row>
     <row r="50" spans="2:6" ht="30" customHeight="1">
       <c r="B50" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C50" s="17">
         <v>2</v>
@@ -1751,7 +1757,7 @@
     </row>
     <row r="51" spans="2:6" ht="30" customHeight="1">
       <c r="B51" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C51" s="17">
         <v>2</v>
@@ -1762,7 +1768,7 @@
     </row>
     <row r="52" spans="2:6" ht="30" customHeight="1">
       <c r="B52" s="17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C52" s="17">
         <v>2</v>
@@ -1773,7 +1779,7 @@
     </row>
     <row r="53" spans="2:6" ht="30" customHeight="1">
       <c r="B53" s="17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C53" s="17">
         <v>2</v>
@@ -1784,7 +1790,7 @@
     </row>
     <row r="54" spans="2:6" ht="30" customHeight="1">
       <c r="B54" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C54" s="17">
         <v>4</v>
@@ -1795,7 +1801,7 @@
     </row>
     <row r="55" spans="2:6" ht="30" customHeight="1">
       <c r="B55" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C55" s="17">
         <v>4</v>
@@ -1806,7 +1812,7 @@
     </row>
     <row r="56" spans="2:6" ht="30" customHeight="1">
       <c r="B56" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C56" s="17">
         <v>1</v>
@@ -1817,7 +1823,7 @@
     </row>
     <row r="57" spans="2:6" ht="30" customHeight="1">
       <c r="B57" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C57" s="17">
         <v>1</v>
@@ -1828,7 +1834,7 @@
     </row>
     <row r="58" spans="2:6" ht="30" customHeight="1">
       <c r="B58" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C58" s="17">
         <v>1</v>
@@ -1839,7 +1845,7 @@
     </row>
     <row r="59" spans="2:6" ht="30" customHeight="1">
       <c r="B59" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C59" s="17">
         <v>1</v>
@@ -1850,7 +1856,7 @@
     </row>
     <row r="60" spans="2:6" ht="30" customHeight="1">
       <c r="B60" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C60" s="17">
         <v>1</v>
@@ -1861,7 +1867,7 @@
     </row>
     <row r="61" spans="2:6" ht="30" customHeight="1">
       <c r="B61" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C61" s="17">
         <v>1</v>
@@ -1872,7 +1878,7 @@
     </row>
     <row r="62" spans="2:6" ht="30" customHeight="1">
       <c r="B62" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C62" s="17">
         <v>1</v>
@@ -1969,15 +1975,18 @@
     <hyperlink ref="E29" r:id="rId18" xr:uid="{9885E899-EEED-48B9-A704-723623E2F39B}"/>
     <hyperlink ref="E15" r:id="rId19" xr:uid="{BC6C6574-C29D-4D65-A01A-D5341F47E438}"/>
     <hyperlink ref="E14" r:id="rId20" display="https://www.amazon.com/FPVDrone-Connectors-Connector-Multicopter-Quadcopter/dp/B0874BMYHZ/ref=sr_1_42?dib=eyJ2IjoiMSJ9.DaKl1hZzxQ8-Gjv6GV5Nm1B3mcJ-vVLsH29TbPtgvHV4Qt97ZZmwWpBXHCuth8sl8KSCBFgab2G-UR0kAa0BzWfsYkW-fY3skub0LAYZiXL2hVOZHpu_z4ODfhlK-zZCcQDQNYWpl_Z_t-qUJdy-aNxoFp4ovpuoGA6nvcH6lFw6Vgz0JOPx86asHzH1LNCag3DrY6bJBR64O6fiDkObzUrKtcawxhOKTzHz71PVxadvNDJplak8cjCBD78M0ZF7yYlW8IwLiszcfsfDnpDyAEmqCbPUg0OWIL5NCxD09B0.DMqmSBWIomWzQP2sEWBTp0ophM9oPKS60Pb4y4L1sqc&amp;dib_tag=se&amp;keywords=xt60+connectors&amp;qid=1726731957&amp;sr=8-42" xr:uid="{9075A4CF-53A8-4E91-B60C-276787F2206B}"/>
+    <hyperlink ref="E43" r:id="rId21" display="https://www.amazon.de/-/en/Screws-Spacer-Sleeves-Female-Repair/dp/B09TR3C3WR/ref=sr_1_2?crid=32DZ4ENC965DK&amp;dib=eyJ2IjoiMSJ9.dE7kt6IMk4x-XruzLJQ7fUn3KtIeSEE1j_eJI4grNNqjpF3c5b6jI0Xhe8pOc-hN3w0gyN_v3zZTQ3G7nCXpO2sIysTF0TrptezlqpyYj-CyrnEL9viQFKgbFhSUbZls0FX_LvIr2k9dAhWsIXbsqClJkoeWhhFJ9bUHcv5HwCkOgl4ktDLI6oYCtoKNIhejYHDJisqnKOKZbRL8g5GcRYkjFg0maDuCvRb1oQ749WNrm_lDvr732pkmfOzBWRCxa-tUgX7_XBrrhZPCEaizEmXjodQRwt5sHuWluQgVacY.bk0o0vSn3h8nL8-DOLFB8Ke9VJ3LreKag39EJVZTCC0&amp;dib_tag=se&amp;keywords=Nylon+screws+nuts+spacers&amp;qid=1728318721&amp;s=industrial&amp;sprefix=nylon+screws+nuts+spacers%2Cindustrial%2C95&amp;sr=1-2" xr:uid="{1A7EACF8-C449-4306-9ABD-3BB2BD114268}"/>
+    <hyperlink ref="E44" r:id="rId22" display="https://www.amazon.de/-/en/Screws-Spacer-Sleeves-Female-Repair/dp/B09TR3C3WR/ref=sr_1_2?crid=32DZ4ENC965DK&amp;dib=eyJ2IjoiMSJ9.dE7kt6IMk4x-XruzLJQ7fUn3KtIeSEE1j_eJI4grNNqjpF3c5b6jI0Xhe8pOc-hN3w0gyN_v3zZTQ3G7nCXpO2sIysTF0TrptezlqpyYj-CyrnEL9viQFKgbFhSUbZls0FX_LvIr2k9dAhWsIXbsqClJkoeWhhFJ9bUHcv5HwCkOgl4ktDLI6oYCtoKNIhejYHDJisqnKOKZbRL8g5GcRYkjFg0maDuCvRb1oQ749WNrm_lDvr732pkmfOzBWRCxa-tUgX7_XBrrhZPCEaizEmXjodQRwt5sHuWluQgVacY.bk0o0vSn3h8nL8-DOLFB8Ke9VJ3LreKag39EJVZTCC0&amp;dib_tag=se&amp;keywords=Nylon+screws+nuts+spacers&amp;qid=1728318721&amp;s=industrial&amp;sprefix=nylon+screws+nuts+spacers%2Cindustrial%2C95&amp;sr=1-2" xr:uid="{CE37D9BE-3C95-42D6-BCEB-DDBCFBB7634A}"/>
+    <hyperlink ref="E45" r:id="rId23" display="https://www.amazon.de/-/en/Screws-Spacer-Sleeves-Female-Repair/dp/B09TR3C3WR/ref=sr_1_2?crid=32DZ4ENC965DK&amp;dib=eyJ2IjoiMSJ9.dE7kt6IMk4x-XruzLJQ7fUn3KtIeSEE1j_eJI4grNNqjpF3c5b6jI0Xhe8pOc-hN3w0gyN_v3zZTQ3G7nCXpO2sIysTF0TrptezlqpyYj-CyrnEL9viQFKgbFhSUbZls0FX_LvIr2k9dAhWsIXbsqClJkoeWhhFJ9bUHcv5HwCkOgl4ktDLI6oYCtoKNIhejYHDJisqnKOKZbRL8g5GcRYkjFg0maDuCvRb1oQ749WNrm_lDvr732pkmfOzBWRCxa-tUgX7_XBrrhZPCEaizEmXjodQRwt5sHuWluQgVacY.bk0o0vSn3h8nL8-DOLFB8Ke9VJ3LreKag39EJVZTCC0&amp;dib_tag=se&amp;keywords=Nylon+screws+nuts+spacers&amp;qid=1728318721&amp;s=industrial&amp;sprefix=nylon+screws+nuts+spacers%2Cindustrial%2C95&amp;sr=1-2" xr:uid="{4F937678-3519-4723-96D6-837D2CCFC84D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="45" fitToHeight="0" orientation="landscape" r:id="rId21"/>
+  <pageSetup scale="45" fitToHeight="0" orientation="landscape" r:id="rId24"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId22"/>
+    <tablePart r:id="rId25"/>
   </tableParts>
 </worksheet>
 </file>

--- a/.gitbook/assets/Buggy Component List.xlsx
+++ b/.gitbook/assets/Buggy Component List.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28209"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BF37E45-6551-45EA-BA49-31D3B34369BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68E13262-80CE-4D72-966B-9F4DCE1C180B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
   <si>
     <t>Buggy components list</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>Pixy2Box2</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -506,7 +509,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -599,6 +602,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -613,12 +619,20 @@
     <cellStyle name="Title" xfId="3" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Zip Code" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -634,7 +648,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -650,7 +664,39 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -713,9 +759,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStyleMedium4 2" pivot="0" count="3" xr9:uid="{3B7A5C1B-BC83-4B54-BBED-42914B400470}">
-      <tableStyleElement type="wholeTable" dxfId="8"/>
-      <tableStyleElement type="headerRow" dxfId="7"/>
-      <tableStyleElement type="firstRowStripe" dxfId="6"/>
+      <tableStyleElement type="wholeTable" dxfId="13"/>
+      <tableStyleElement type="headerRow" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -798,14 +844,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CustomerList" displayName="CustomerList" ref="B4:F62" totalsRowShown="0" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CustomerList" displayName="CustomerList" ref="B4:F63" totalsRowCount="1" dataDxfId="10">
   <autoFilter ref="B4:F62" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Components" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Units ()" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Price (EUR)" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Link" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Notes" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Components" totalsRowLabel="Total" dataDxfId="8" totalsRowDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Units ()" dataDxfId="6" totalsRowDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Price (EUR)" dataDxfId="4" totalsRowDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Link" dataDxfId="2" totalsRowDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Notes" totalsRowFunction="count" dataDxfId="0" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1047,10 +1093,10 @@
     <tabColor theme="6" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O70"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="30" customHeight="1"/>
@@ -1500,7 +1546,9 @@
     </row>
     <row r="30" spans="2:15" ht="30" customHeight="1">
       <c r="B30" s="27"/>
-      <c r="C30" s="28"/>
+      <c r="C30" s="28">
+        <v>1</v>
+      </c>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
@@ -1575,7 +1623,7 @@
         <v>57</v>
       </c>
       <c r="C36" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="17" t="s">
@@ -1888,60 +1936,72 @@
       <c r="F62" s="17"/>
     </row>
     <row r="63" spans="2:6" ht="30" customHeight="1">
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
+      <c r="B63" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31">
+        <f>SUBTOTAL(103,CustomerList[Notes])</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="64" spans="2:6" ht="30" customHeight="1">
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
     </row>
     <row r="65" spans="2:6" ht="30" customHeight="1">
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
     </row>
     <row r="66" spans="2:6" ht="30" customHeight="1">
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
     </row>
     <row r="67" spans="2:6" ht="30" customHeight="1">
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
     </row>
     <row r="68" spans="2:6" ht="30" customHeight="1">
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
     </row>
     <row r="69" spans="2:6" ht="30" customHeight="1">
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
     </row>
     <row r="70" spans="2:6" ht="30" customHeight="1">
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+    </row>
+    <row r="71" spans="2:6" ht="30" customHeight="1">
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -1992,15 +2052,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -2020,7 +2071,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2332,16 +2383,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2F9FC5B-1419-41E5-B909-94EB8B44A792}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9294272-CF55-45E6-BFA7-E13D5DFD9221}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9294272-CF55-45E6-BFA7-E13D5DFD9221}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F11600A7-1852-41A2-85E0-7A283C2047C4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F11600A7-1852-41A2-85E0-7A283C2047C4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2F9FC5B-1419-41E5-B909-94EB8B44A792}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/.gitbook/assets/Buggy Component List.xlsx
+++ b/.gitbook/assets/Buggy Component List.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68E13262-80CE-4D72-966B-9F4DCE1C180B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE0385A-640C-4BA0-8857-1169721D5473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Customer contact list" sheetId="1" r:id="rId1"/>
+    <sheet name="Mechanical&amp;Electrical component" sheetId="1" r:id="rId1"/>
+    <sheet name="Screws, nuts and spacers" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Customer contact list'!$4:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Mechanical&amp;Electrical component'!$4:$4</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
-  <si>
-    <t>Buggy components list</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="100">
   <si>
     <t>Components</t>
   </si>
@@ -114,9 +112,6 @@
     <t>https://www.tinytronics.nl/en/cables-and-connectors/cables-and-adapters/prototyping-wires/dupont-compatible-and-jumper/dupont-jumper-wire-male-female-10cm-10-wires</t>
   </si>
   <si>
-    <t>2 packs of 10 but buy more of all types ( female and male)</t>
-  </si>
-  <si>
     <t>XT60 Male to Female Connectors with JST Female in-line</t>
   </si>
   <si>
@@ -171,81 +166,6 @@
     <t>https://eu.mouser.com/ProductDetail/DFRobot/DRI0047?qs=w%2Fv1CP2dgqpyHy2raR%252BGzg%3D%3D</t>
   </si>
   <si>
-    <t>Screws, Nuts and Bolts</t>
-  </si>
-  <si>
-    <t>M3 25 mm spacer</t>
-  </si>
-  <si>
-    <t>https://ro.mouser.com/ProductDetail/Wurth-Elektronik/971150354?qs=wr8lucFkNMVIaQl2qtrKvA%3D%3D</t>
-  </si>
-  <si>
-    <t>M3 15 mm spacer</t>
-  </si>
-  <si>
-    <t>M3 45 mm spacer</t>
-  </si>
-  <si>
-    <t>https://ro.mouser.com/ProductDetail/Wurth-Elektronik/970450324?qs=wr8lucFkNMXOhbySD7%252BnDA%3D%3D</t>
-  </si>
-  <si>
-    <t>M2-12mm Bolt</t>
-  </si>
-  <si>
-    <t>any store</t>
-  </si>
-  <si>
-    <t>M3-12mm Bolt</t>
-  </si>
-  <si>
-    <t>M3-5mm Bolt</t>
-  </si>
-  <si>
-    <t>M3-25mm Bolt</t>
-  </si>
-  <si>
-    <t>M3-20mm Bolt</t>
-  </si>
-  <si>
-    <t>M3-40mm Bolt</t>
-  </si>
-  <si>
-    <t>M3.5-10mm Bolt</t>
-  </si>
-  <si>
-    <t>The screws come with the hexagonal adapters.</t>
-  </si>
-  <si>
-    <t>M5-35mm Bolt</t>
-  </si>
-  <si>
-    <t>M5-20mm Bolt</t>
-  </si>
-  <si>
-    <t>M2 nut</t>
-  </si>
-  <si>
-    <t>M3 nut</t>
-  </si>
-  <si>
-    <t>M5 nut</t>
-  </si>
-  <si>
-    <t>M3-12mm nylon spacer</t>
-  </si>
-  <si>
-    <t>https://www.amazon.de/-/en/Screws-Spacer-Sleeves-Female-Repair/dp/B09TR3C3WR/ref=sr_1_2?crid=32DZ4ENC965DK&amp;dib=eyJ2IjoiMSJ9.dE7kt6IMk4x-XruzLJQ7fUn3KtIeSEE1j_eJI4grNNqjpF3c5b6jI0Xhe8pOc-hN3w0gyN_v3zZTQ3G7nCXpO2sIysTF0TrptezlqpyYj-CyrnEL9viQFKgbFhSUbZls0FX_LvIr2k9dAhWsIXbsqClJkoeWhhFJ9bUHcv5HwCkOgl4ktDLI6oYCtoKNIhejYHDJisqnKOKZbRL8g5GcRYkjFg0maDuCvRb1oQ749WNrm_lDvr732pkmfOzBWRCxa-tUgX7_XBrrhZPCEaizEmXjodQRwt5sHuWluQgVacY.bk0o0vSn3h8nL8-DOLFB8Ke9VJ3LreKag39EJVZTCC0&amp;dib_tag=se&amp;keywords=Nylon+screws+nuts+spacers&amp;qid=1728318721&amp;s=industrial&amp;sprefix=nylon+screws+nuts+spacers%2Cindustrial%2C95&amp;sr=1-2</t>
-  </si>
-  <si>
-    <t>M3-10mm nylon Screw</t>
-  </si>
-  <si>
-    <t>M3 nylon nut</t>
-  </si>
-  <si>
-    <t>Prints</t>
-  </si>
-  <si>
     <t>BottomPlate</t>
   </si>
   <si>
@@ -261,21 +181,9 @@
     <t>ServoArm</t>
   </si>
   <si>
-    <t>FrontWheelBearingHolder</t>
-  </si>
-  <si>
-    <t>Fuzeta</t>
-  </si>
-  <si>
-    <t>LowerClamp</t>
-  </si>
-  <si>
     <t>UpperClamp</t>
   </si>
   <si>
-    <t>DisplayBox</t>
-  </si>
-  <si>
     <t>CameraHold</t>
   </si>
   <si>
@@ -295,6 +203,174 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>One pair of male and female</t>
+  </si>
+  <si>
+    <t>One meter of wire</t>
+  </si>
+  <si>
+    <t>Pixy mounting</t>
+  </si>
+  <si>
+    <t>Linear camera mounting</t>
+  </si>
+  <si>
+    <t>Hbridge mounting</t>
+  </si>
+  <si>
+    <t>K144 mounting</t>
+  </si>
+  <si>
+    <t>Screws, nuts and spacers</t>
+  </si>
+  <si>
+    <t>Mechanical and electrical components</t>
+  </si>
+  <si>
+    <t>Display mounting</t>
+  </si>
+  <si>
+    <t>M3 nuts</t>
+  </si>
+  <si>
+    <t>M3x12 screws</t>
+  </si>
+  <si>
+    <t>M3x20 screws</t>
+  </si>
+  <si>
+    <t>M3x35 screws</t>
+  </si>
+  <si>
+    <t>M3x40 screws</t>
+  </si>
+  <si>
+    <t>M3 nylon nuts</t>
+  </si>
+  <si>
+    <t>M3x12 nylon spacers male-female</t>
+  </si>
+  <si>
+    <t>M3x10 nylon screws</t>
+  </si>
+  <si>
+    <t>M4x12 screws</t>
+  </si>
+  <si>
+    <t>M5x30 screws</t>
+  </si>
+  <si>
+    <t>M5 nuts</t>
+  </si>
+  <si>
+    <t>Lower plate</t>
+  </si>
+  <si>
+    <t>Upper plate</t>
+  </si>
+  <si>
+    <t>Camera pole and elevation mechanism</t>
+  </si>
+  <si>
+    <t>M5x20 screws</t>
+  </si>
+  <si>
+    <t>Servo mounting</t>
+  </si>
+  <si>
+    <t>Front wheels mounting</t>
+  </si>
+  <si>
+    <t>DC motors clamps</t>
+  </si>
+  <si>
+    <t>M3x15 spacer male-female</t>
+  </si>
+  <si>
+    <t>M3x25 spacer female-female</t>
+  </si>
+  <si>
+    <t>M3x45 spacer female-female</t>
+  </si>
+  <si>
+    <t>M2x12 screw</t>
+  </si>
+  <si>
+    <t>M2 nuts</t>
+  </si>
+  <si>
+    <t>BottomPlateHalf1</t>
+  </si>
+  <si>
+    <t>BottomPlateHalf2</t>
+  </si>
+  <si>
+    <t>Entire bottom plate:</t>
+  </si>
+  <si>
+    <t>Entire upper plate:</t>
+  </si>
+  <si>
+    <t>UpperPlateHalf1</t>
+  </si>
+  <si>
+    <t>UpperPlateHalf2</t>
+  </si>
+  <si>
+    <t>Linchpin</t>
+  </si>
+  <si>
+    <t>OLEDbox</t>
+  </si>
+  <si>
+    <t>buy male-male, male-female, female-female for easier connections. 10 of each type</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bottom plate from two half plates:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OR  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Upper plate from two half plates:</t>
+    </r>
+  </si>
+  <si>
+    <t>3D Prints STL names</t>
   </si>
 </sst>
 </file>
@@ -305,7 +381,7 @@
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
     <numFmt numFmtId="165" formatCode="00000"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -401,12 +477,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -420,27 +490,58 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="68"/>
+      <name val="Century Schoolbook"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="0.39997558519241921"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -477,8 +578,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -486,6 +611,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -509,7 +662,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -564,9 +717,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -579,32 +729,89 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -619,20 +826,52 @@
     <cellStyle name="Title" xfId="3" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Zip Code" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
     <dxf>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -648,7 +887,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -664,7 +903,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -673,30 +912,6 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -759,9 +974,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStyleMedium4 2" pivot="0" count="3" xr9:uid="{3B7A5C1B-BC83-4B54-BBED-42914B400470}">
-      <tableStyleElement type="wholeTable" dxfId="13"/>
-      <tableStyleElement type="headerRow" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="wholeTable" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="firstRowStripe" dxfId="12"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -844,14 +1059,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CustomerList" displayName="CustomerList" ref="B4:F63" totalsRowCount="1" dataDxfId="10">
-  <autoFilter ref="B4:F62" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CustomerList" displayName="CustomerList" ref="B4:F64" totalsRowCount="1" dataDxfId="11" totalsRowDxfId="5">
+  <autoFilter ref="B4:F63" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Components" totalsRowLabel="Total" dataDxfId="8" totalsRowDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Units ()" dataDxfId="6" totalsRowDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Price (EUR)" dataDxfId="4" totalsRowDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Link" dataDxfId="2" totalsRowDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Notes" totalsRowFunction="count" dataDxfId="0" totalsRowDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Components" dataDxfId="10" totalsRowDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Units ()" dataDxfId="9" totalsRowDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Price (EUR)" dataDxfId="8" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Link" dataDxfId="7" totalsRowDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Notes" dataDxfId="6" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1093,31 +1308,31 @@
     <tabColor theme="6" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O71"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="41.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="41.08203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="20" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="79.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.08203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="79.08203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="62" style="4" customWidth="1"/>
-    <col min="7" max="7" width="20.375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="16.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.58203125" style="4" customWidth="1"/>
     <col min="9" max="9" width="20" style="4" customWidth="1"/>
-    <col min="10" max="12" width="18.375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="21.625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="33.375" style="4" customWidth="1"/>
+    <col min="10" max="12" width="18.33203125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="21.58203125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="33.33203125" style="4" customWidth="1"/>
     <col min="15" max="15" width="5" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="8.875" style="9"/>
+    <col min="16" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" ht="8.1" customHeight="1">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1134,7 +1349,7 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:15" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="2" spans="1:15" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1151,10 +1366,10 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" s="8" customFormat="1" ht="99.95" customHeight="1">
+    <row r="3" spans="1:15" s="8" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="1">
       <c r="A3" s="4"/>
       <c r="B3" s="10" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -1170,27 +1385,27 @@
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="1:15" ht="30" customHeight="1">
+    <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="11" t="s">
         <v>5</v>
-      </c>
-      <c r="O4" s="9"/>
-    </row>
-    <row r="5" spans="1:15" ht="33.950000000000003" customHeight="1">
-      <c r="B5" s="11" t="s">
-        <v>6</v>
       </c>
       <c r="C5" s="11">
         <v>1</v>
@@ -1199,14 +1414,14 @@
         <v>12.01</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="11"/>
       <c r="O5" s="9"/>
     </row>
-    <row r="6" spans="1:15" ht="33.950000000000003" customHeight="1">
+    <row r="6" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="11">
         <v>2</v>
@@ -1215,16 +1430,16 @@
         <v>14.81</v>
       </c>
       <c r="E6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="O6" s="9"/>
-    </row>
-    <row r="7" spans="1:15" ht="33.950000000000003" customHeight="1">
-      <c r="B7" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="C7" s="11">
         <v>2</v>
@@ -1233,14 +1448,14 @@
         <v>10.23</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="11"/>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" spans="1:15" ht="33.950000000000003" customHeight="1">
+    <row r="8" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="11">
         <v>1</v>
@@ -1249,16 +1464,16 @@
         <v>5.07</v>
       </c>
       <c r="E8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="O8" s="9"/>
-    </row>
-    <row r="9" spans="1:15" ht="33.950000000000003" customHeight="1">
-      <c r="B9" s="11" t="s">
-        <v>16</v>
       </c>
       <c r="C9" s="11">
         <v>1</v>
@@ -1267,78 +1482,86 @@
         <v>12.57</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="11"/>
       <c r="O9" s="9"/>
     </row>
-    <row r="10" spans="1:15" ht="30" customHeight="1">
+    <row r="10" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
       <c r="D10" s="11">
         <v>1.5</v>
       </c>
       <c r="E10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="O10" s="9"/>
-    </row>
-    <row r="11" spans="1:15" ht="30" customHeight="1">
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="11">
-        <v>4</v>
-      </c>
-      <c r="D11" s="11">
-        <v>3.61</v>
-      </c>
-      <c r="E11" s="12" t="s">
+      <c r="F11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="O11" s="9"/>
-    </row>
-    <row r="12" spans="1:15" ht="30" customHeight="1">
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="11">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1.06</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="11">
-        <v>4</v>
-      </c>
-      <c r="D12" s="11">
-        <v>3.37</v>
-      </c>
-      <c r="E12" s="12" t="s">
+      <c r="F12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="O12" s="9"/>
-    </row>
-    <row r="13" spans="1:15" ht="30" customHeight="1">
-      <c r="B13" s="11" t="s">
+      <c r="C13" s="11">
+        <v>3</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="11">
-        <v>2</v>
-      </c>
-      <c r="D13" s="11">
-        <v>1</v>
-      </c>
-      <c r="E13" s="12" t="s">
+      <c r="F13" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="O13" s="9"/>
-    </row>
-    <row r="14" spans="1:15" ht="30" customHeight="1">
-      <c r="B14" s="11" t="s">
-        <v>27</v>
       </c>
       <c r="C14" s="11">
         <v>1</v>
@@ -1347,14 +1570,14 @@
         <v>8</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F14" s="11"/>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" spans="1:15" ht="30" customHeight="1">
+    <row r="15" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="11">
         <v>2</v>
@@ -1363,14 +1586,14 @@
         <v>9.9499999999999993</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="11"/>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="1:15" ht="30" customHeight="1">
+    <row r="16" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -1378,9 +1601,9 @@
       <c r="F16" s="13"/>
       <c r="O16" s="9"/>
     </row>
-    <row r="17" spans="2:15" ht="30" customHeight="1">
+    <row r="17" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" s="11">
         <v>1</v>
@@ -1389,23 +1612,23 @@
         <v>39.15</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F17" s="11"/>
       <c r="O17" s="9"/>
     </row>
-    <row r="18" spans="2:15" ht="30" customHeight="1">
+    <row r="18" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="2:15" ht="30" customHeight="1">
+    <row r="19" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" s="17">
         <v>1</v>
@@ -1413,23 +1636,23 @@
       <c r="D19" s="17">
         <v>92.16</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="22" t="s">
         <v>36</v>
-      </c>
-      <c r="F19" s="17"/>
-    </row>
-    <row r="20" spans="2:15" ht="30" customHeight="1">
-      <c r="B20" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-    </row>
-    <row r="21" spans="2:15" ht="30" customHeight="1">
-      <c r="B21" s="24" t="s">
-        <v>38</v>
       </c>
       <c r="C21" s="17">
         <v>1</v>
@@ -1437,23 +1660,23 @@
       <c r="D21" s="17">
         <v>105.42</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="24" t="s">
         <v>39</v>
-      </c>
-      <c r="F21" s="17"/>
-    </row>
-    <row r="22" spans="2:15" ht="30" customHeight="1">
-      <c r="B22" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="2:15" ht="30" customHeight="1">
-      <c r="B23" s="26" t="s">
-        <v>41</v>
       </c>
       <c r="C23" s="17">
         <v>1</v>
@@ -1461,23 +1684,23 @@
       <c r="D23" s="17">
         <v>2.86</v>
       </c>
-      <c r="E23" s="20" t="s">
-        <v>42</v>
+      <c r="E23" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="F23" s="17"/>
     </row>
-    <row r="24" spans="2:15" ht="30" customHeight="1">
-      <c r="B24" s="25" t="s">
-        <v>34</v>
+    <row r="24" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="23" t="s">
+        <v>32</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
     </row>
-    <row r="25" spans="2:15" ht="30" customHeight="1">
-      <c r="B25" s="24" t="s">
-        <v>43</v>
+    <row r="25" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="22" t="s">
+        <v>41</v>
       </c>
       <c r="C25" s="17">
         <v>1</v>
@@ -1485,283 +1708,227 @@
       <c r="D25" s="17">
         <v>14.85</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+    </row>
+    <row r="27" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="47"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+    </row>
+    <row r="28" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="17">
+        <v>1</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="47"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+    </row>
+    <row r="30" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="48">
+        <v>1</v>
+      </c>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+    </row>
+    <row r="31" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="48">
+        <v>1</v>
+      </c>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+    </row>
+    <row r="32" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="47"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+    </row>
+    <row r="33" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="17"/>
-    </row>
-    <row r="26" spans="2:15" ht="30" customHeight="1">
-      <c r="B26" s="23" t="s">
+      <c r="C33" s="48">
+        <v>1</v>
+      </c>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+    </row>
+    <row r="34" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+    </row>
+    <row r="35" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="48">
+        <v>1</v>
+      </c>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+    </row>
+    <row r="36" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="48">
+        <v>1</v>
+      </c>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+    </row>
+    <row r="37" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="46"/>
+    </row>
+    <row r="38" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-    </row>
-    <row r="27" spans="2:15" ht="30" customHeight="1">
-      <c r="B27" s="17" t="s">
+      <c r="C38" s="17">
+        <v>1</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+    </row>
+    <row r="39" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="17" t="s">
         <v>46</v>
-      </c>
-      <c r="C27" s="17">
-        <v>3</v>
-      </c>
-      <c r="D27" s="17">
-        <v>3.79</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="17"/>
-    </row>
-    <row r="28" spans="2:15" ht="30" customHeight="1">
-      <c r="B28" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="17">
-        <v>2</v>
-      </c>
-      <c r="D28" s="17">
-        <v>1.2</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="17"/>
-    </row>
-    <row r="29" spans="2:15" ht="30" customHeight="1">
-      <c r="B29" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="17">
-        <v>5</v>
-      </c>
-      <c r="D29" s="17">
-        <v>6.65</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F29" s="17"/>
-    </row>
-    <row r="30" spans="2:15" ht="30" customHeight="1">
-      <c r="B30" s="27"/>
-      <c r="C30" s="28">
-        <v>1</v>
-      </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-    </row>
-    <row r="31" spans="2:15" ht="30" customHeight="1">
-      <c r="B31" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="28">
-        <v>1</v>
-      </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="F31" s="28"/>
-    </row>
-    <row r="32" spans="2:15" ht="30" customHeight="1">
-      <c r="B32" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="17">
-        <v>44</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" s="17"/>
-    </row>
-    <row r="33" spans="2:6" ht="30" customHeight="1">
-      <c r="B33" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="17">
-        <v>4</v>
-      </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" s="17"/>
-    </row>
-    <row r="34" spans="2:6" ht="30" customHeight="1">
-      <c r="B34" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="17">
-        <v>2</v>
-      </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" s="17"/>
-    </row>
-    <row r="35" spans="2:6" ht="30" customHeight="1">
-      <c r="B35" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="17">
-        <v>6</v>
-      </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F35" s="17"/>
-    </row>
-    <row r="36" spans="2:6" ht="30" customHeight="1">
-      <c r="B36" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="17">
-        <v>3</v>
-      </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F36" s="17"/>
-    </row>
-    <row r="37" spans="2:6" ht="30" customHeight="1">
-      <c r="B37" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="17">
-        <v>2</v>
-      </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="30" customHeight="1">
-      <c r="B38" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="17">
-        <v>8</v>
-      </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F38" s="17"/>
-    </row>
-    <row r="39" spans="2:6" ht="30" customHeight="1">
-      <c r="B39" s="17" t="s">
-        <v>61</v>
       </c>
       <c r="C39" s="17">
         <v>2</v>
       </c>
       <c r="D39" s="17"/>
-      <c r="E39" s="17" t="s">
-        <v>52</v>
-      </c>
+      <c r="E39" s="17"/>
       <c r="F39" s="17"/>
     </row>
-    <row r="40" spans="2:6" ht="30" customHeight="1">
+    <row r="40" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="17" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C40" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" s="17"/>
-      <c r="E40" s="17" t="s">
-        <v>52</v>
-      </c>
+      <c r="E40" s="17"/>
       <c r="F40" s="17"/>
     </row>
-    <row r="41" spans="2:6" ht="30" customHeight="1">
+    <row r="41" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="17" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="C41" s="17">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D41" s="17"/>
-      <c r="E41" s="17" t="s">
-        <v>52</v>
-      </c>
+      <c r="E41" s="17"/>
       <c r="F41" s="17"/>
     </row>
-    <row r="42" spans="2:6" ht="30" customHeight="1">
+    <row r="42" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="17" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C42" s="17">
         <v>2</v>
       </c>
       <c r="D42" s="17"/>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+    </row>
+    <row r="43" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="17">
+        <v>1</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+    </row>
+    <row r="44" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="17">
+        <v>1</v>
+      </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+    </row>
+    <row r="45" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="17">
+        <v>1</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+    </row>
+    <row r="46" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="17">
+        <v>1</v>
+      </c>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+    </row>
+    <row r="47" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="17" t="s">
         <v>52</v>
-      </c>
-      <c r="F42" s="17"/>
-    </row>
-    <row r="43" spans="2:6" ht="30" customHeight="1">
-      <c r="B43" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="17">
-        <v>4</v>
-      </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="F43" s="17"/>
-    </row>
-    <row r="44" spans="2:6" ht="30" customHeight="1">
-      <c r="B44" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" s="17">
-        <v>4</v>
-      </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="F44" s="17"/>
-    </row>
-    <row r="45" spans="2:6" ht="30" customHeight="1">
-      <c r="B45" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="17">
-        <v>4</v>
-      </c>
-      <c r="D45" s="17"/>
-      <c r="E45" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="F45" s="17"/>
-    </row>
-    <row r="46" spans="2:6" ht="30" customHeight="1">
-      <c r="B46" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-    </row>
-    <row r="47" spans="2:6" ht="30" customHeight="1">
-      <c r="B47" s="29" t="s">
-        <v>70</v>
       </c>
       <c r="C47" s="17">
         <v>1</v>
@@ -1770,9 +1937,9 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
     </row>
-    <row r="48" spans="2:6" ht="30" customHeight="1">
+    <row r="48" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="17" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C48" s="17">
         <v>1</v>
@@ -1781,9 +1948,9 @@
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
     </row>
-    <row r="49" spans="2:6" ht="30" customHeight="1">
+    <row r="49" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="17" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C49" s="17">
         <v>1</v>
@@ -1792,216 +1959,68 @@
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
     </row>
-    <row r="50" spans="2:6" ht="30" customHeight="1">
-      <c r="B50" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50" s="17">
-        <v>2</v>
-      </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-    </row>
-    <row r="51" spans="2:6" ht="30" customHeight="1">
-      <c r="B51" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" s="17">
-        <v>2</v>
-      </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-    </row>
-    <row r="52" spans="2:6" ht="30" customHeight="1">
-      <c r="B52" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C52" s="17">
-        <v>2</v>
-      </c>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-    </row>
-    <row r="53" spans="2:6" ht="30" customHeight="1">
-      <c r="B53" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C53" s="17">
-        <v>2</v>
-      </c>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-    </row>
-    <row r="54" spans="2:6" ht="30" customHeight="1">
-      <c r="B54" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C54" s="17">
-        <v>4</v>
-      </c>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-    </row>
-    <row r="55" spans="2:6" ht="30" customHeight="1">
-      <c r="B55" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C55" s="17">
-        <v>4</v>
-      </c>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-    </row>
-    <row r="56" spans="2:6" ht="30" customHeight="1">
-      <c r="B56" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C56" s="17">
-        <v>1</v>
-      </c>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-    </row>
-    <row r="57" spans="2:6" ht="30" customHeight="1">
-      <c r="B57" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C57" s="17">
-        <v>1</v>
-      </c>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-    </row>
-    <row r="58" spans="2:6" ht="30" customHeight="1">
-      <c r="B58" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C58" s="17">
-        <v>1</v>
-      </c>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-    </row>
-    <row r="59" spans="2:6" ht="30" customHeight="1">
-      <c r="B59" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C59" s="17">
-        <v>1</v>
-      </c>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-    </row>
-    <row r="60" spans="2:6" ht="30" customHeight="1">
-      <c r="B60" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" s="17">
-        <v>1</v>
-      </c>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-    </row>
-    <row r="61" spans="2:6" ht="30" customHeight="1">
-      <c r="B61" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C61" s="17">
-        <v>1</v>
-      </c>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-    </row>
-    <row r="62" spans="2:6" ht="30" customHeight="1">
-      <c r="B62" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C62" s="17">
-        <v>1</v>
-      </c>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-    </row>
-    <row r="63" spans="2:6" ht="30" customHeight="1">
-      <c r="B63" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31">
-        <f>SUBTOTAL(103,CustomerList[Notes])</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" ht="30" customHeight="1">
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-    </row>
-    <row r="65" spans="2:6" ht="30" customHeight="1">
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-    </row>
-    <row r="66" spans="2:6" ht="30" customHeight="1">
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-    </row>
-    <row r="67" spans="2:6" ht="30" customHeight="1">
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-    </row>
-    <row r="68" spans="2:6" ht="30" customHeight="1">
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-    </row>
-    <row r="69" spans="2:6" ht="30" customHeight="1">
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-    </row>
-    <row r="70" spans="2:6" ht="30" customHeight="1">
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-    </row>
-    <row r="71" spans="2:6" ht="30" customHeight="1">
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
+    <row r="64" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="26"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+    </row>
+    <row r="65" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="40"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+    </row>
+    <row r="66" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="40"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
+    </row>
+    <row r="67" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="40"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="40"/>
+    </row>
+    <row r="68" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="40"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+    </row>
+    <row r="69" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="40"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
+    </row>
+    <row r="70" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="40"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
+    </row>
+    <row r="71" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="40"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="40"/>
+    </row>
+    <row r="72" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="40"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -2030,45 +2049,1083 @@
     <hyperlink ref="E21" r:id="rId13" xr:uid="{EA971739-08AD-486C-A3A8-02AEF48AB582}"/>
     <hyperlink ref="E23" r:id="rId14" xr:uid="{AC9642BA-C2A0-46AE-8D19-0BCE028020A7}"/>
     <hyperlink ref="E25" r:id="rId15" xr:uid="{A5B8CCFB-DCDB-4047-939D-5FA4D6808849}"/>
-    <hyperlink ref="E27" r:id="rId16" xr:uid="{63DDE436-C017-44B4-BDDA-11C8C5E7EC2E}"/>
-    <hyperlink ref="E28" r:id="rId17" xr:uid="{97F6199E-B186-496B-B2A2-F8935C2F2A35}"/>
-    <hyperlink ref="E29" r:id="rId18" xr:uid="{9885E899-EEED-48B9-A704-723623E2F39B}"/>
-    <hyperlink ref="E15" r:id="rId19" xr:uid="{BC6C6574-C29D-4D65-A01A-D5341F47E438}"/>
-    <hyperlink ref="E14" r:id="rId20" display="https://www.amazon.com/FPVDrone-Connectors-Connector-Multicopter-Quadcopter/dp/B0874BMYHZ/ref=sr_1_42?dib=eyJ2IjoiMSJ9.DaKl1hZzxQ8-Gjv6GV5Nm1B3mcJ-vVLsH29TbPtgvHV4Qt97ZZmwWpBXHCuth8sl8KSCBFgab2G-UR0kAa0BzWfsYkW-fY3skub0LAYZiXL2hVOZHpu_z4ODfhlK-zZCcQDQNYWpl_Z_t-qUJdy-aNxoFp4ovpuoGA6nvcH6lFw6Vgz0JOPx86asHzH1LNCag3DrY6bJBR64O6fiDkObzUrKtcawxhOKTzHz71PVxadvNDJplak8cjCBD78M0ZF7yYlW8IwLiszcfsfDnpDyAEmqCbPUg0OWIL5NCxD09B0.DMqmSBWIomWzQP2sEWBTp0ophM9oPKS60Pb4y4L1sqc&amp;dib_tag=se&amp;keywords=xt60+connectors&amp;qid=1726731957&amp;sr=8-42" xr:uid="{9075A4CF-53A8-4E91-B60C-276787F2206B}"/>
-    <hyperlink ref="E43" r:id="rId21" display="https://www.amazon.de/-/en/Screws-Spacer-Sleeves-Female-Repair/dp/B09TR3C3WR/ref=sr_1_2?crid=32DZ4ENC965DK&amp;dib=eyJ2IjoiMSJ9.dE7kt6IMk4x-XruzLJQ7fUn3KtIeSEE1j_eJI4grNNqjpF3c5b6jI0Xhe8pOc-hN3w0gyN_v3zZTQ3G7nCXpO2sIysTF0TrptezlqpyYj-CyrnEL9viQFKgbFhSUbZls0FX_LvIr2k9dAhWsIXbsqClJkoeWhhFJ9bUHcv5HwCkOgl4ktDLI6oYCtoKNIhejYHDJisqnKOKZbRL8g5GcRYkjFg0maDuCvRb1oQ749WNrm_lDvr732pkmfOzBWRCxa-tUgX7_XBrrhZPCEaizEmXjodQRwt5sHuWluQgVacY.bk0o0vSn3h8nL8-DOLFB8Ke9VJ3LreKag39EJVZTCC0&amp;dib_tag=se&amp;keywords=Nylon+screws+nuts+spacers&amp;qid=1728318721&amp;s=industrial&amp;sprefix=nylon+screws+nuts+spacers%2Cindustrial%2C95&amp;sr=1-2" xr:uid="{1A7EACF8-C449-4306-9ABD-3BB2BD114268}"/>
-    <hyperlink ref="E44" r:id="rId22" display="https://www.amazon.de/-/en/Screws-Spacer-Sleeves-Female-Repair/dp/B09TR3C3WR/ref=sr_1_2?crid=32DZ4ENC965DK&amp;dib=eyJ2IjoiMSJ9.dE7kt6IMk4x-XruzLJQ7fUn3KtIeSEE1j_eJI4grNNqjpF3c5b6jI0Xhe8pOc-hN3w0gyN_v3zZTQ3G7nCXpO2sIysTF0TrptezlqpyYj-CyrnEL9viQFKgbFhSUbZls0FX_LvIr2k9dAhWsIXbsqClJkoeWhhFJ9bUHcv5HwCkOgl4ktDLI6oYCtoKNIhejYHDJisqnKOKZbRL8g5GcRYkjFg0maDuCvRb1oQ749WNrm_lDvr732pkmfOzBWRCxa-tUgX7_XBrrhZPCEaizEmXjodQRwt5sHuWluQgVacY.bk0o0vSn3h8nL8-DOLFB8Ke9VJ3LreKag39EJVZTCC0&amp;dib_tag=se&amp;keywords=Nylon+screws+nuts+spacers&amp;qid=1728318721&amp;s=industrial&amp;sprefix=nylon+screws+nuts+spacers%2Cindustrial%2C95&amp;sr=1-2" xr:uid="{CE37D9BE-3C95-42D6-BCEB-DDBCFBB7634A}"/>
-    <hyperlink ref="E45" r:id="rId23" display="https://www.amazon.de/-/en/Screws-Spacer-Sleeves-Female-Repair/dp/B09TR3C3WR/ref=sr_1_2?crid=32DZ4ENC965DK&amp;dib=eyJ2IjoiMSJ9.dE7kt6IMk4x-XruzLJQ7fUn3KtIeSEE1j_eJI4grNNqjpF3c5b6jI0Xhe8pOc-hN3w0gyN_v3zZTQ3G7nCXpO2sIysTF0TrptezlqpyYj-CyrnEL9viQFKgbFhSUbZls0FX_LvIr2k9dAhWsIXbsqClJkoeWhhFJ9bUHcv5HwCkOgl4ktDLI6oYCtoKNIhejYHDJisqnKOKZbRL8g5GcRYkjFg0maDuCvRb1oQ749WNrm_lDvr732pkmfOzBWRCxa-tUgX7_XBrrhZPCEaizEmXjodQRwt5sHuWluQgVacY.bk0o0vSn3h8nL8-DOLFB8Ke9VJ3LreKag39EJVZTCC0&amp;dib_tag=se&amp;keywords=Nylon+screws+nuts+spacers&amp;qid=1728318721&amp;s=industrial&amp;sprefix=nylon+screws+nuts+spacers%2Cindustrial%2C95&amp;sr=1-2" xr:uid="{4F937678-3519-4723-96D6-837D2CCFC84D}"/>
+    <hyperlink ref="E15" r:id="rId16" xr:uid="{BC6C6574-C29D-4D65-A01A-D5341F47E438}"/>
+    <hyperlink ref="E14" r:id="rId17" display="https://www.amazon.com/FPVDrone-Connectors-Connector-Multicopter-Quadcopter/dp/B0874BMYHZ/ref=sr_1_42?dib=eyJ2IjoiMSJ9.DaKl1hZzxQ8-Gjv6GV5Nm1B3mcJ-vVLsH29TbPtgvHV4Qt97ZZmwWpBXHCuth8sl8KSCBFgab2G-UR0kAa0BzWfsYkW-fY3skub0LAYZiXL2hVOZHpu_z4ODfhlK-zZCcQDQNYWpl_Z_t-qUJdy-aNxoFp4ovpuoGA6nvcH6lFw6Vgz0JOPx86asHzH1LNCag3DrY6bJBR64O6fiDkObzUrKtcawxhOKTzHz71PVxadvNDJplak8cjCBD78M0ZF7yYlW8IwLiszcfsfDnpDyAEmqCbPUg0OWIL5NCxD09B0.DMqmSBWIomWzQP2sEWBTp0ophM9oPKS60Pb4y4L1sqc&amp;dib_tag=se&amp;keywords=xt60+connectors&amp;qid=1726731957&amp;sr=8-42" xr:uid="{9075A4CF-53A8-4E91-B60C-276787F2206B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="45" fitToHeight="0" orientation="landscape" r:id="rId24"/>
+  <pageSetup scale="45" fitToHeight="0" orientation="landscape" r:id="rId18"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId25"/>
+    <tablePart r:id="rId19"/>
   </tableParts>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AE81EA-1BD4-4B3F-A807-7A6378453BB2}">
+  <dimension ref="A1:X32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.08203125" customWidth="1"/>
+    <col min="2" max="2" width="24.08203125" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="7.9140625" customWidth="1"/>
+    <col min="7" max="7" width="7.75" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" customWidth="1"/>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="10" max="10" width="13.4140625" customWidth="1"/>
+    <col min="11" max="11" width="13.08203125" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="13" max="13" width="11.4140625" customWidth="1"/>
+    <col min="14" max="14" width="9.25" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
+    <col min="16" max="16" width="7.9140625" customWidth="1"/>
+    <col min="17" max="17" width="8" customWidth="1"/>
+    <col min="18" max="18" width="8.25" customWidth="1"/>
+    <col min="19" max="19" width="7.33203125" customWidth="1"/>
+    <col min="20" max="20" width="7.9140625" customWidth="1"/>
+    <col min="21" max="22" width="12.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+    </row>
+    <row r="2" spans="1:24" ht="76" customHeight="1" x14ac:dyDescent="1.5">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="26"/>
+    </row>
+    <row r="3" spans="1:24" s="29" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="28"/>
+      <c r="B3" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+    </row>
+    <row r="4" spans="1:24" s="34" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="33"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q4" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="R4" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="S4" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="T4" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+    </row>
+    <row r="5" spans="1:24" s="34" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="33"/>
+      <c r="B5" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="36">
+        <v>1</v>
+      </c>
+      <c r="D5" s="36">
+        <v>2</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36">
+        <v>1</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+    </row>
+    <row r="6" spans="1:24" s="34" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33"/>
+      <c r="B6" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="35">
+        <v>4</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+    </row>
+    <row r="7" spans="1:24" s="34" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="33"/>
+      <c r="B7" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36">
+        <v>4</v>
+      </c>
+      <c r="M7" s="36">
+        <v>4</v>
+      </c>
+      <c r="N7" s="36">
+        <v>4</v>
+      </c>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+    </row>
+    <row r="8" spans="1:24" s="34" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33"/>
+      <c r="B8" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35">
+        <v>4</v>
+      </c>
+      <c r="M8" s="35">
+        <v>4</v>
+      </c>
+      <c r="N8" s="35">
+        <v>4</v>
+      </c>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+    </row>
+    <row r="9" spans="1:24" s="34" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="33"/>
+      <c r="B9" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36">
+        <v>1</v>
+      </c>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+    </row>
+    <row r="10" spans="1:24" s="34" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="33"/>
+      <c r="B10" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35">
+        <v>8</v>
+      </c>
+      <c r="R10" s="35">
+        <v>8</v>
+      </c>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+    </row>
+    <row r="11" spans="1:24" s="34" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="33"/>
+      <c r="B11" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="36">
+        <v>11</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36">
+        <v>4</v>
+      </c>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
+    </row>
+    <row r="12" spans="1:24" s="34" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33"/>
+      <c r="B12" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="35">
+        <v>10</v>
+      </c>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35">
+        <v>4</v>
+      </c>
+      <c r="I12" s="35">
+        <v>2</v>
+      </c>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35">
+        <v>4</v>
+      </c>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+    </row>
+    <row r="13" spans="1:24" s="34" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="33"/>
+      <c r="B13" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36">
+        <v>2</v>
+      </c>
+      <c r="E13" s="36">
+        <v>1</v>
+      </c>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36">
+        <v>2</v>
+      </c>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36">
+        <v>2</v>
+      </c>
+      <c r="P13" s="36">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36">
+        <v>2</v>
+      </c>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
+    </row>
+    <row r="14" spans="1:24" s="34" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33"/>
+      <c r="B14" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="35">
+        <v>2</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="33"/>
+    </row>
+    <row r="15" spans="1:24" s="34" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33"/>
+      <c r="B15" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="38">
+        <v>3</v>
+      </c>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38">
+        <v>2</v>
+      </c>
+      <c r="H15" s="38">
+        <v>2</v>
+      </c>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38">
+        <v>3</v>
+      </c>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38">
+        <v>1</v>
+      </c>
+      <c r="T15" s="38">
+        <v>1</v>
+      </c>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+    </row>
+    <row r="16" spans="1:24" s="34" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="33"/>
+      <c r="B16" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="39">
+        <f>SUM(C5:C15)</f>
+        <v>31</v>
+      </c>
+      <c r="D16" s="39">
+        <f>SUM(D5:D15)</f>
+        <v>5</v>
+      </c>
+      <c r="E16" s="39">
+        <f>SUM(E5:E15)</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="39">
+        <f>SUM(F5:F15)</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="39">
+        <f>SUM(G5:G15)</f>
+        <v>2</v>
+      </c>
+      <c r="H16" s="39">
+        <f>SUM(H5:H15)</f>
+        <v>12</v>
+      </c>
+      <c r="I16" s="39">
+        <f>SUM(I5:I15)</f>
+        <v>2</v>
+      </c>
+      <c r="J16" s="39">
+        <f>SUM(J5:J15)</f>
+        <v>3</v>
+      </c>
+      <c r="K16" s="39">
+        <f>SUM(K5:K15)</f>
+        <v>4</v>
+      </c>
+      <c r="L16" s="39">
+        <f>SUM(L5:L15)</f>
+        <v>8</v>
+      </c>
+      <c r="M16" s="39">
+        <f>SUM(M5:M15)</f>
+        <v>8</v>
+      </c>
+      <c r="N16" s="39">
+        <f>SUM(N5:N15)</f>
+        <v>8</v>
+      </c>
+      <c r="O16" s="39">
+        <f>SUM(O5:O15)</f>
+        <v>2</v>
+      </c>
+      <c r="P16" s="39">
+        <f>SUM(P5:P15)</f>
+        <v>2</v>
+      </c>
+      <c r="Q16" s="39">
+        <f>SUM(Q5:Q15)</f>
+        <v>8</v>
+      </c>
+      <c r="R16" s="39">
+        <f>SUM(R5:R15)</f>
+        <v>10</v>
+      </c>
+      <c r="S16" s="39">
+        <f>SUM(S5:S15)</f>
+        <v>1</v>
+      </c>
+      <c r="T16" s="39">
+        <f>SUM(T5:T15)</f>
+        <v>1</v>
+      </c>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+    </row>
+    <row r="17" spans="1:24" s="34" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="33"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+    </row>
+    <row r="18" spans="1:24" s="34" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+    </row>
+    <row r="19" spans="1:24" s="34" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="33"/>
+    </row>
+    <row r="20" spans="1:24" s="34" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="33"/>
+    </row>
+    <row r="21" spans="1:24" s="34" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="33"/>
+    </row>
+    <row r="22" spans="1:24" s="34" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="33"/>
+    </row>
+    <row r="23" spans="1:24" s="34" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="33"/>
+    </row>
+    <row r="24" spans="1:24" s="34" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+    </row>
+    <row r="25" spans="1:24" s="34" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="33"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:W2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2384,24 +3441,64 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9294272-CF55-45E6-BFA7-E13D5DFD9221}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2F9FC5B-1419-41E5-B909-94EB8B44A792}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F11600A7-1852-41A2-85E0-7A283C2047C4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F11600A7-1852-41A2-85E0-7A283C2047C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2F9FC5B-1419-41E5-B909-94EB8B44A792}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9294272-CF55-45E6-BFA7-E13D5DFD9221}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
